--- a/adressesIP.xlsx
+++ b/adressesIP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -78,18 +78,6 @@
     <t>192.168.4.3</t>
   </si>
   <si>
-    <t>192.168.5.1</t>
-  </si>
-  <si>
-    <t>192.168.5.2</t>
-  </si>
-  <si>
-    <t>192.168.5.3</t>
-  </si>
-  <si>
-    <t>192.168.5.4</t>
-  </si>
-  <si>
     <t>Périphériques</t>
   </si>
   <si>
@@ -112,6 +100,18 @@
   </si>
   <si>
     <t>Yocto-Hub (3d, Servo, DigitalIO, Pression, Gps)</t>
+  </si>
+  <si>
+    <t>192.168.1.4</t>
+  </si>
+  <si>
+    <t>192.168.2.4</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+  </si>
+  <si>
+    <t>192.168.4.4</t>
   </si>
 </sst>
 </file>
@@ -270,15 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,6 +293,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,7 +592,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,167 +605,167 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="19"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>19</v>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>20</v>
+      <c r="B15" s="16"/>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>21</v>
+      <c r="B16" s="16"/>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>22</v>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
